--- a/data/prioritization/Snake River IPTDS Prioritization 20240417.xlsx
+++ b/data/prioritization/Snake River IPTDS Prioritization 20240417.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\SnakeR_IPTDS\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\SnakeRiverIPTDS\data\prioritization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79140BED-19EF-49E0-A47A-3394ED5973C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7D6AA2-3324-46EA-B916-5CD997AE3A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="16440" windowHeight="28590" tabRatio="581" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="581" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
@@ -3679,7 +3679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A42020D-9532-4D3F-8F80-EE8C6D0895CA}">
   <dimension ref="B1:AA67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -4426,11 +4426,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4554933-5C62-409C-B1F4-87485B7250BD}">
   <dimension ref="A1:AI104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
